--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashley\Documents\GitHub\MCompResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6648020-8AF7-45C7-B50F-FF6FC67A8B49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05FE9B5-52BE-41F2-9774-FB0B751B25A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{6AD4E498-922E-4C3B-822D-0BDB4A1A3D67}"/>
   </bookViews>
@@ -129,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,10 +905,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -916,19 +917,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>24</c:v>
@@ -1089,28 +1093,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1119,7 +1123,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -1128,7 +1132,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -1210,6 +1214,7 @@
         <c:axId val="585705832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2449,15 +2454,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2783,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A02310C-B1DF-4F64-87E9-902932256816}">
-  <dimension ref="B4:F19"/>
+  <dimension ref="B4:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,9 +2800,10 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2827,8 +2833,9 @@
       <c r="F5" s="2">
         <v>43195</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2866,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2910,7 +2917,7 @@
         <v>43090</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>43188</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -3071,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE57F2E-F9F1-490C-BB79-5E6D328C1EFD}">
   <dimension ref="B4:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>43034</v>
@@ -3137,13 +3144,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>43041</v>
       </c>
       <c r="F7" s="2">
-        <v>43055</v>
+        <v>43062</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3154,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <v>43055</v>
@@ -3168,10 +3175,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>43069</v>
@@ -3185,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3205,13 +3212,13 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>43090</v>
       </c>
       <c r="F11" s="2">
-        <v>43146</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -3222,13 +3229,13 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>43090</v>
       </c>
       <c r="F12" s="2">
-        <v>43146</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -3236,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3253,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3273,7 +3280,7 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
         <v>43167</v>
@@ -3287,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3320,11 +3327,14 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
       <c r="D18">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2">
-        <v>43034</v>
+        <v>43167</v>
       </c>
       <c r="F18" s="2">
         <v>43209</v>
